--- a/log/benchmark_result.xlsx
+++ b/log/benchmark_result.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\jMetal\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C9201-19CA-4167-89BB-08A580FA3858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A680478-C067-43DD-9920-256CC08F66D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7965" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEC2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -412,7 +421,7 @@
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -420,7 +429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -428,19 +437,21 @@
         <v>1.6589999999999999E-4</v>
       </c>
       <c r="C2" s="1">
-        <v>1.8002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7814999999999999E-4</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>3.9581000000000002E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>2.2673999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.8393000000000001E-4</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -448,19 +459,21 @@
         <v>1.3385E-4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.12956999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.7582000000000001E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>1.6479E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>8.1842000000000008E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.9182999999999996E-3</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -468,19 +481,21 @@
         <v>1.7301E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>2.6608000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.9133E-4</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>1.5605E-4</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0991E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.8761E-4</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -488,19 +503,21 @@
         <v>6.8068000000000002E-4</v>
       </c>
       <c r="C8" s="1">
-        <v>2.7969000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8856E-2</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>4.6176000000000002E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>3.107E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8856E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -508,19 +525,21 @@
         <v>3.1597000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.9368E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4697999999999999E-3</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>16.501000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>4.7525000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.8090999999999999</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -528,19 +547,21 @@
         <v>4.1533999999999999E-4</v>
       </c>
       <c r="C12" s="1">
-        <v>2.2282000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8814999999999998E-4</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>1.7627000000000001E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23064000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.11842999999999999</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -548,19 +569,21 @@
         <v>1.4898</v>
       </c>
       <c r="C14" s="1">
-        <v>4.1497000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.4380999999999999</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>3.0496000000000001E-4</v>
       </c>
       <c r="C15" s="1">
-        <v>1.951E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.8678E-4</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -568,19 +591,21 @@
         <v>0.10485999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25689000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.11846</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>1.9683E-4</v>
       </c>
       <c r="C17" s="1">
-        <v>5.0361999999999998E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.7755000000000003E-3</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -588,19 +613,21 @@
         <v>5.8467000000000002E-4</v>
       </c>
       <c r="C18" s="1">
-        <v>7.5135999999999996E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.2177999999999999E-4</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>0.64175000000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>0.64385000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.64183000000000001</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
